--- a/team_specific_matrix/Central Mich._B.xlsx
+++ b/team_specific_matrix/Central Mich._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2185792349726776</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="C2">
-        <v>0.4972677595628415</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01639344262295082</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1912568306010929</v>
+        <v>0.1680327868852459</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07650273224043716</v>
+        <v>0.07377049180327869</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C3">
-        <v>0.01111111111111111</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02222222222222222</v>
+        <v>0.0364963503649635</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7777777777777778</v>
+        <v>0.7372262773722628</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1888888888888889</v>
+        <v>0.1678832116788321</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2666666666666667</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03947368421052631</v>
+        <v>0.06</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006578947368421052</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1052631578947368</v>
+        <v>0.095</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2631578947368421</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0131578947368421</v>
+        <v>0.01</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="R6">
-        <v>0.07894736842105263</v>
+        <v>0.095</v>
       </c>
       <c r="S6">
-        <v>0.3684210526315789</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1160714285714286</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008928571428571428</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0625</v>
+        <v>0.05755395683453238</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07142857142857142</v>
+        <v>0.09352517985611511</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01785714285714286</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1339285714285714</v>
+        <v>0.1294964028776978</v>
       </c>
       <c r="R7">
-        <v>0.07142857142857142</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="S7">
-        <v>0.5178571428571429</v>
+        <v>0.5035971223021583</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08282208588957055</v>
+        <v>0.09022556390977443</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03067484662576687</v>
+        <v>0.02506265664160401</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06134969325153374</v>
+        <v>0.06516290726817042</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1533742331288344</v>
+        <v>0.1553884711779449</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01226993865030675</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.147239263803681</v>
+        <v>0.1528822055137845</v>
       </c>
       <c r="R8">
-        <v>0.05828220858895705</v>
+        <v>0.05764411027568922</v>
       </c>
       <c r="S8">
-        <v>0.4539877300613497</v>
+        <v>0.4385964912280702</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06306306306306306</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02702702702702703</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05405405405405406</v>
+        <v>0.08391608391608392</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1531531531531531</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01801801801801802</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1531531531531531</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="R9">
-        <v>0.1261261261261261</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="S9">
-        <v>0.4054054054054054</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09845132743362832</v>
+        <v>0.1000841042893188</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0165929203539823</v>
+        <v>0.0159798149705635</v>
       </c>
       <c r="E10">
-        <v>0.005530973451327434</v>
+        <v>0.004205214465937763</v>
       </c>
       <c r="F10">
-        <v>0.05752212389380531</v>
+        <v>0.05971404541631623</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1261061946902655</v>
+        <v>0.144659377628259</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0165929203539823</v>
+        <v>0.0176619007569386</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1913716814159292</v>
+        <v>0.1976450798990748</v>
       </c>
       <c r="R10">
-        <v>0.09292035398230089</v>
+        <v>0.08662741799831791</v>
       </c>
       <c r="S10">
-        <v>0.3949115044247787</v>
+        <v>0.3734230445752734</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1390374331550802</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1336898395721925</v>
+        <v>0.1324786324786325</v>
       </c>
       <c r="K11">
-        <v>0.1925133689839572</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L11">
-        <v>0.5133689839572193</v>
+        <v>0.5085470085470085</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0213903743315508</v>
+        <v>0.02136752136752137</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7755102040816326</v>
+        <v>0.7603305785123967</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1530612244897959</v>
+        <v>0.1735537190082645</v>
       </c>
       <c r="K12">
-        <v>0.01020408163265306</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="L12">
-        <v>0.02040816326530612</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04081632653061224</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6129032258064516</v>
+        <v>0.55</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3548387096774194</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03225806451612903</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0145985401459854</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2116788321167883</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="I15">
-        <v>0.04379562043795621</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="J15">
-        <v>0.4160583941605839</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
-        <v>0.072992700729927</v>
+        <v>0.08</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0145985401459854</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0291970802919708</v>
+        <v>0.04</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1970802919708029</v>
+        <v>0.1942857142857143</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03937007874015748</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2125984251968504</v>
+        <v>0.2130177514792899</v>
       </c>
       <c r="I16">
-        <v>0.1023622047244094</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="J16">
-        <v>0.3937007874015748</v>
+        <v>0.408284023668639</v>
       </c>
       <c r="K16">
-        <v>0.05511811023622047</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007874015748031496</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02362204724409449</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1653543307086614</v>
+        <v>0.136094674556213</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03007518796992481</v>
+        <v>0.0339943342776204</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1804511278195489</v>
+        <v>0.1784702549575071</v>
       </c>
       <c r="I17">
-        <v>0.08646616541353383</v>
+        <v>0.08781869688385269</v>
       </c>
       <c r="J17">
-        <v>0.462406015037594</v>
+        <v>0.4702549575070821</v>
       </c>
       <c r="K17">
-        <v>0.06766917293233082</v>
+        <v>0.0594900849858357</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02631578947368421</v>
+        <v>0.0226628895184136</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05639097744360902</v>
+        <v>0.0594900849858357</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09022556390977443</v>
+        <v>0.08781869688385269</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03676470588235294</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1544117647058824</v>
+        <v>0.1488095238095238</v>
       </c>
       <c r="I18">
-        <v>0.08823529411764706</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J18">
-        <v>0.4411764705882353</v>
+        <v>0.4345238095238095</v>
       </c>
       <c r="K18">
-        <v>0.07352941176470588</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01470588235294118</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07352941176470588</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1176470588235294</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01331853496115427</v>
+        <v>0.01188299817184644</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2230854605993341</v>
+        <v>0.2138939670932358</v>
       </c>
       <c r="I19">
-        <v>0.06437291897891231</v>
+        <v>0.06398537477148081</v>
       </c>
       <c r="J19">
-        <v>0.3740288568257492</v>
+        <v>0.3985374771480805</v>
       </c>
       <c r="K19">
-        <v>0.1120976692563818</v>
+        <v>0.1087751371115174</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02219755826859045</v>
+        <v>0.02285191956124314</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06992230854605994</v>
+        <v>0.06764168190127971</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.120976692563818</v>
+        <v>0.1124314442413163</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Central Mich._B.xlsx
+++ b/team_specific_matrix/Central Mich._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1967213114754098</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="C2">
-        <v>0.5491803278688525</v>
+        <v>0.5663082437275986</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01229508196721311</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1680327868852459</v>
+        <v>0.1648745519713262</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07377049180327869</v>
+        <v>0.07526881720430108</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0072992700729927</v>
+        <v>0.01875</v>
       </c>
       <c r="C3">
-        <v>0.05109489051094891</v>
+        <v>0.04375</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0364963503649635</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7372262773722628</v>
+        <v>0.74375</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1678832116788321</v>
+        <v>0.1625</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1052631578947368</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6578947368421053</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2368421052631579</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.095</v>
+        <v>0.1013215859030837</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2643171806167401</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.12</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="R6">
-        <v>0.095</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="S6">
-        <v>0.36</v>
+        <v>0.3612334801762114</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1151079136690648</v>
+        <v>0.1161290322580645</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01438848920863309</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05755395683453238</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09352517985611511</v>
+        <v>0.1032258064516129</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01438848920863309</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1294964028776978</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="R7">
-        <v>0.07194244604316546</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="S7">
-        <v>0.5035971223021583</v>
+        <v>0.4967741935483871</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09022556390977443</v>
+        <v>0.09172259507829977</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02506265664160401</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06516290726817042</v>
+        <v>0.07158836689038031</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1553884711779449</v>
+        <v>0.1588366890380313</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01503759398496241</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1528822055137845</v>
+        <v>0.1498881431767338</v>
       </c>
       <c r="R8">
-        <v>0.05764411027568922</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="S8">
-        <v>0.4385964912280702</v>
+        <v>0.4250559284116331</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07692307692307693</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02797202797202797</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08391608391608392</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1678321678321678</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01398601398601399</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1468531468531468</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="R9">
-        <v>0.0979020979020979</v>
+        <v>0.1036585365853658</v>
       </c>
       <c r="S9">
-        <v>0.3846153846153846</v>
+        <v>0.3780487804878049</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1000841042893188</v>
+        <v>0.1040723981900453</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0159798149705635</v>
+        <v>0.01583710407239819</v>
       </c>
       <c r="E10">
-        <v>0.004205214465937763</v>
+        <v>0.003770739064856712</v>
       </c>
       <c r="F10">
-        <v>0.05971404541631623</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.144659377628259</v>
+        <v>0.138763197586727</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0176619007569386</v>
+        <v>0.01583710407239819</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1976450798990748</v>
+        <v>0.1990950226244344</v>
       </c>
       <c r="R10">
-        <v>0.08662741799831791</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="S10">
-        <v>0.3734230445752734</v>
+        <v>0.3687782805429864</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.141025641025641</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1324786324786325</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="K11">
-        <v>0.1965811965811966</v>
+        <v>0.1946564885496183</v>
       </c>
       <c r="L11">
-        <v>0.5085470085470085</v>
+        <v>0.5076335877862596</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02136752136752137</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7603305785123967</v>
+        <v>0.7279411764705882</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1735537190082645</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="K12">
-        <v>0.008264462809917356</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="L12">
-        <v>0.01652892561983471</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04132231404958678</v>
+        <v>0.04411764705882353</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.55</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01142857142857143</v>
+        <v>0.015</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2057142857142857</v>
+        <v>0.195</v>
       </c>
       <c r="I15">
-        <v>0.05142857142857143</v>
+        <v>0.05</v>
       </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="K15">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01714285714285714</v>
+        <v>0.015</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1942857142857143</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02958579881656805</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2130177514792899</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="I16">
-        <v>0.1005917159763314</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="J16">
-        <v>0.408284023668639</v>
+        <v>0.4175257731958763</v>
       </c>
       <c r="K16">
-        <v>0.0650887573964497</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005917159763313609</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04142011834319527</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.136094674556213</v>
+        <v>0.1237113402061856</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0339943342776204</v>
+        <v>0.03307888040712468</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1784702549575071</v>
+        <v>0.178117048346056</v>
       </c>
       <c r="I17">
-        <v>0.08781869688385269</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="J17">
-        <v>0.4702549575070821</v>
+        <v>0.460559796437659</v>
       </c>
       <c r="K17">
-        <v>0.0594900849858357</v>
+        <v>0.05597964376590331</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0226628895184136</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0594900849858357</v>
+        <v>0.07124681933842239</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08781869688385269</v>
+        <v>0.09414758269720101</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03571428571428571</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1488095238095238</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="I18">
-        <v>0.09523809523809523</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="J18">
-        <v>0.4345238095238095</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="K18">
-        <v>0.08333333333333333</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01785714285714286</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07738095238095238</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1071428571428571</v>
+        <v>0.1138613861386139</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01188299817184644</v>
+        <v>0.01227495908346972</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2138939670932358</v>
+        <v>0.2176759410801964</v>
       </c>
       <c r="I19">
-        <v>0.06398537477148081</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="J19">
-        <v>0.3985374771480805</v>
+        <v>0.3887070376432079</v>
       </c>
       <c r="K19">
-        <v>0.1087751371115174</v>
+        <v>0.1104746317512275</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02285191956124314</v>
+        <v>0.02454991816693944</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06764168190127971</v>
+        <v>0.06792144026186579</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1124314442413163</v>
+        <v>0.1145662847790507</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Central Mich._B.xlsx
+++ b/team_specific_matrix/Central Mich._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1827956989247312</v>
+        <v>0.1873015873015873</v>
       </c>
       <c r="C2">
-        <v>0.5663082437275986</v>
+        <v>0.5650793650793651</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01075268817204301</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1648745519713262</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07526881720430108</v>
+        <v>0.0761904761904762</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01875</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="C3">
-        <v>0.04375</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.74375</v>
+        <v>0.7362637362637363</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1625</v>
+        <v>0.1703296703296703</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2380952380952381</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05286343612334802</v>
+        <v>0.05138339920948617</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00881057268722467</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1013215859030837</v>
+        <v>0.09486166007905138</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2643171806167401</v>
+        <v>0.2687747035573123</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00881057268722467</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1101321585903084</v>
+        <v>0.1185770750988142</v>
       </c>
       <c r="R6">
-        <v>0.09251101321585903</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S6">
-        <v>0.3612334801762114</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1161290322580645</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01290322580645161</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05161290322580645</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1032258064516129</v>
+        <v>0.1306818181818182</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01290322580645161</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1290322580645161</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="R7">
-        <v>0.07741935483870968</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="S7">
-        <v>0.4967741935483871</v>
+        <v>0.4829545454545455</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09172259507829977</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02684563758389262</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07158836689038031</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1588366890380313</v>
+        <v>0.1560574948665298</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01342281879194631</v>
+        <v>0.01232032854209446</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1498881431767338</v>
+        <v>0.1581108829568789</v>
       </c>
       <c r="R8">
-        <v>0.06263982102908278</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="S8">
-        <v>0.4250559284116331</v>
+        <v>0.4229979466119096</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08536585365853659</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02439024390243903</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08536585365853659</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1646341463414634</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01219512195121951</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1463414634146341</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="R9">
-        <v>0.1036585365853658</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="S9">
-        <v>0.3780487804878049</v>
+        <v>0.3770491803278688</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1040723981900453</v>
+        <v>0.1067567567567568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01583710407239819</v>
+        <v>0.01486486486486487</v>
       </c>
       <c r="E10">
-        <v>0.003770739064856712</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="F10">
-        <v>0.05882352941176471</v>
+        <v>0.06148648648648649</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.138763197586727</v>
+        <v>0.1378378378378378</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01583710407239819</v>
+        <v>0.01554054054054054</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1990950226244344</v>
+        <v>0.2033783783783784</v>
       </c>
       <c r="R10">
-        <v>0.09502262443438914</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="S10">
-        <v>0.3687782805429864</v>
+        <v>0.3648648648648649</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1450381679389313</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1297709923664122</v>
+        <v>0.1282894736842105</v>
       </c>
       <c r="K11">
-        <v>0.1946564885496183</v>
+        <v>0.2138157894736842</v>
       </c>
       <c r="L11">
-        <v>0.5076335877862596</v>
+        <v>0.4835526315789473</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02290076335877863</v>
+        <v>0.02960526315789474</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7279411764705882</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1911764705882353</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="K12">
-        <v>0.01470588235294118</v>
+        <v>0.02</v>
       </c>
       <c r="L12">
-        <v>0.02205882352941177</v>
+        <v>0.02</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04411764705882353</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5777777777777777</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3777777777777778</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04444444444444445</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.015</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.195</v>
+        <v>0.2098214285714286</v>
       </c>
       <c r="I15">
-        <v>0.05</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="J15">
-        <v>0.405</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K15">
-        <v>0.07000000000000001</v>
+        <v>0.0625</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="O15">
-        <v>0.045</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.205</v>
+        <v>0.2008928571428572</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03092783505154639</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1958762886597938</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="I16">
-        <v>0.1134020618556701</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="J16">
-        <v>0.4175257731958763</v>
+        <v>0.3990610328638498</v>
       </c>
       <c r="K16">
-        <v>0.06701030927835051</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005154639175257732</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04639175257731959</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1237113402061856</v>
+        <v>0.136150234741784</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03307888040712468</v>
+        <v>0.03348214285714286</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.178117048346056</v>
+        <v>0.1741071428571428</v>
       </c>
       <c r="I17">
-        <v>0.08396946564885496</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="J17">
-        <v>0.460559796437659</v>
+        <v>0.4598214285714285</v>
       </c>
       <c r="K17">
-        <v>0.05597964376590331</v>
+        <v>0.0625</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02290076335877863</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07124681933842239</v>
+        <v>0.06919642857142858</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09414758269720101</v>
+        <v>0.09821428571428571</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03465346534653466</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1435643564356436</v>
+        <v>0.1415525114155251</v>
       </c>
       <c r="I18">
-        <v>0.09900990099009901</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="J18">
-        <v>0.4356435643564356</v>
+        <v>0.4429223744292237</v>
       </c>
       <c r="K18">
-        <v>0.08415841584158416</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01485148514851485</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07425742574257425</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1138613861386139</v>
+        <v>0.1187214611872146</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01227495908346972</v>
+        <v>0.01238164603058995</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2176759410801964</v>
+        <v>0.2068463219227968</v>
       </c>
       <c r="I19">
-        <v>0.06382978723404255</v>
+        <v>0.06627822286962855</v>
       </c>
       <c r="J19">
-        <v>0.3887070376432079</v>
+        <v>0.3867443554260743</v>
       </c>
       <c r="K19">
-        <v>0.1104746317512275</v>
+        <v>0.1114348142753095</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02454991816693944</v>
+        <v>0.02549162418062637</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06792144026186579</v>
+        <v>0.06846321922796796</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1145662847790507</v>
+        <v>0.1223597960670066</v>
       </c>
     </row>
   </sheetData>
